--- a/仕様書/Uedaが如くRE_ガントチャート.xlsx
+++ b/仕様書/Uedaが如くRE_ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24969997-8B52-4083-8C1B-6D4564A219DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6E1EA-A4C1-4F2B-B6F4-7E2B7E94D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -108,6 +108,22 @@
     <rPh sb="0" eb="4">
       <t>セイサクキカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9/24～10/20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/21～11/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11/25～12/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~12/30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -661,7 +677,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -694,18 +710,20 @@
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -768,21 +786,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -1017,6 +1025,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1027,17 +1046,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1056,6 +1064,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>

--- a/仕様書/Uedaが如くRE_ガントチャート.xlsx
+++ b/仕様書/Uedaが如くRE_ガントチャート.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6E1EA-A4C1-4F2B-B6F4-7E2B7E94D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC0FC5B-0B91-41DC-9F2B-059E8F9C16E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="コピー元" sheetId="1" r:id="rId1"/>
     <sheet name="Uedaが往くRE" sheetId="4" r:id="rId2"/>
+    <sheet name="タスク" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -104,26 +105,396 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>製作期間：9/24～12/30</t>
+    <t>9/24～10/20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/21～11/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11/25～12/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~12/30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動部分</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトル部分</t>
+    <rPh sb="3" eb="5">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム部分</t>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動(歩き、走り)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復スポット</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街部分</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湧き</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを追いかける</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お金</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒートゲージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掴み</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器拾う/捨てる</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久力</t>
+    <rPh sb="0" eb="3">
+      <t>タイキュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器使用</t>
     <rPh sb="0" eb="4">
-      <t>セイサクキカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9/24～10/20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10/21～11/24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11/25～12/25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>~12/30</t>
+      <t>ブキシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵AI</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム売買</t>
+    <rPh sb="4" eb="6">
+      <t>バイバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動部分</t>
+    <rPh sb="0" eb="4">
+      <t>イドウブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力アップ</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力アップ</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップ率アップ</t>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵、武器との当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの当たり判定</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動(歩き/走り)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9/25~9/30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵(仮)</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップとの当たり判定</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>街</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル読み込み</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作期間：9/24～12/30</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー追従</t>
+    <rPh sb="5" eb="7">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力強化</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵(仮で1体)</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ挙動</t>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -131,7 +502,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +537,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +577,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +637,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,69 +1089,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A72A58F-B783-425B-B8E6-CAF69CAAEACA}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47.875" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="44.625" customWidth="1"/>
+    <col min="3" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -746,42 +1163,482 @@
         <v>7</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="14">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="14">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="14">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="14">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="14">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="14">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="14">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="14">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="14">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7518A40D-78BC-4276-81C9-4E538AA5EE4C}">
+  <dimension ref="A2:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -791,6 +1648,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -1025,27 +1902,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1062,23 +1938,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/仕様書/Uedaが如くRE_ガントチャート.xlsx
+++ b/仕様書/Uedaが如くRE_ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\UedaGaYuku_Re\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC0FC5B-0B91-41DC-9F2B-059E8F9C16E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A27C5-001F-4C47-90D6-A575D42033D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -403,10 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9/25~9/30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵(仮)</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -495,6 +491,17 @@
     <rPh sb="3" eb="5">
       <t>キョドウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9/25~10/6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,7 +510,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -647,16 +654,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,7 +1108,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="8" t="s">
@@ -1183,7 +1190,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="15" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -1196,49 +1203,49 @@
     </row>
     <row r="7" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="14">
-        <v>45560</v>
       </c>
     </row>
     <row r="8" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="14">
-        <v>45560</v>
+        <v>52</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14">
-        <v>45561</v>
+      <c r="C9" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="14">
-        <v>45561</v>
+      <c r="C10" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="14">
-        <v>45560</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
@@ -1246,7 +1253,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="14">
-        <v>45562</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="14" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
@@ -1254,30 +1261,30 @@
         <v>49</v>
       </c>
       <c r="C14" s="14">
-        <v>45562</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="15" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="14">
-        <v>45563</v>
+        <v>45570</v>
       </c>
     </row>
     <row r="16" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:5" outlineLevel="3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="14">
-        <v>45560</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
@@ -1305,7 +1312,7 @@
     </row>
     <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="14"/>
     </row>
@@ -1344,13 +1351,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="14"/>
     </row>
@@ -1657,17 +1664,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -1902,6 +1898,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -1911,17 +1918,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1938,4 +1934,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>